--- a/6. C#/作成中/ExportExcelFromJson/ExportExcelFromJson/sample.xlsx
+++ b/6. C#/作成中/ExportExcelFromJson/ExportExcelFromJson/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Implem\個人フォルダ_PublicRepository\PublicRepository\6. C#\作成中\ExportExcelFromJson\ExportExcelFromJson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E144A13-13F1-453C-A8F3-0A1AD7ADD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C683F14-CFFC-473E-B837-CA1CF5ACEF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23440" yWindow="-16780" windowWidth="28800" windowHeight="15450" xr2:uid="{A8C4CD3F-CFDF-4773-932C-38AF8859CAC5}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{802C50BF-F6F2-4744-BE8B-E83043EB3DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,87 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>{_x000D_
-  "HeaderInfo": {_x000D_
-    "AssemblyVersion": "1.4.1.1",_x000D_
-    "BaseSiteId": 11469564,_x000D_
-    "Server": "https://pleasanter.net/fs",_x000D_
-    "CreatorName": "浦田 哲平",_x000D_
-    "PackageTime": "2024-03-29T07:39:51.6251444+00:00",_x000D_
-    "Convertors": [_x000D_
-      {_x000D_
-        "SiteId": 11469564,_x000D_
-        "SiteTitle": "単一プロセス",_x000D_
-        "ReferenceType": "Results",_x000D_
-        "IncludeData": false_x000D_
-      }_x000D_
-    ],_x000D_
-    "IncludeSitePermission": true,_x000D_
-    "IncludeRecordPermission": true,_x000D_
-    "IncludeColumnPermission": true,_x000D_
-    "IncludeNotifications": true,_x000D_
-    "IncludeReminders": true_x000D_
-  },_x000D_
-  "Sites": [_x000D_
-    {_x000D_
-      "TenantId": 1,_x000D_
-      "SiteId": 11469564,_x000D_
-      "Title": "単一プロセス",_x000D_
-      "SiteName": "",_x000D_
-      "SiteGroupName": "",_x000D_
-      "Body": "",_x000D_
-      "GridGuide": "",_x000D_
-      "EditorGuide": "",_x000D_
-      "CalendarGuide": "",_x000D_
-      "CrosstabGuide": "",_x000D_
-      "GanttGuide": "",_x000D_
-      "BurnDownGuide": "",_x000D_
-      "TimeSeriesGuide": "",_x000D_
-      "AnalyGuide": "",_x000D_
-      "KambanGuide": "",_x000D_
-      "ImageLibGuide": "",_x000D_
-      "ReferenceType": "Results",_x000D_
-      "ParentId": 11469552,_x000D_
-      "InheritPermission": 10453386,_x000D_
-      "SiteSettings": {_x000D_
-        "Version": 1.017,_x000D_
-        "ReferenceType": "Results",_x000D_
-        "Processes": [_x000D_
-          {_x000D_
-            "Id": 1,_x000D_
-            "Name": "SampleProcess",_x000D_
-            "DisplayName": "SampleProcess",_x000D_
-            "CurrentStatus": -1,_x000D_
-            "ChangedStatus": 200,_x000D_
-            "View": {_x000D_
-              "Id": 0,_x000D_
-              "ApiColumnKeyDisplayType": 0,_x000D_
-              "ApiColumnValueDisplayType": 0,_x000D_
-              "CalendarSiteId": 0,_x000D_
-              "ApiDataType": 0_x000D_
-            }_x000D_
-          }_x000D_
-        ],_x000D_
-        "NoDisplayIfReadOnly": false_x000D_
-      },_x000D_
-      "Publish": false,_x000D_
-      "DisableCrossSearch": false,_x000D_
-      "Comments": []_x000D_
-    }_x000D_
-  ],_x000D_
-  "Data": [],_x000D_
-  "Permissions": [_x000D_
-    {_x000D_
-      "SiteId": 11469564,_x000D_
-      "Permissions": []_x000D_
-    }_x000D_
-  ],_x000D_
-  "PermissionIdList": {_x000D_
-    "DeptIdList": [],_x000D_
-    "GroupIdList": [],_x000D_
-    "UserIdList": []_x000D_
-  }_x000D_
-}</t>
+    <t>保留</t>
   </si>
 </sst>
 </file>
@@ -164,12 +84,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,15 +421,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E7D364-7FAC-4362-95B7-93CDBA82383E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE89DD-9996-40E9-8590-EB44DE1CC826}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/6. C#/作成中/ExportExcelFromJson/ExportExcelFromJson/sample.xlsx
+++ b/6. C#/作成中/ExportExcelFromJson/ExportExcelFromJson/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Implem\個人フォルダ_PublicRepository\PublicRepository\6. C#\作成中\ExportExcelFromJson\ExportExcelFromJson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C683F14-CFFC-473E-B837-CA1CF5ACEF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F380D46-C60A-46AA-B093-ED4C2921A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{802C50BF-F6F2-4744-BE8B-E83043EB3DBA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{08BA2A9B-1767-49C0-B590-9CFE56E9FE7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>保留</t>
+    <t>未着手</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE89DD-9996-40E9-8590-EB44DE1CC826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E79268-B0E9-4103-A45E-F03177CD19D5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
